--- a/Obskaya bay/R_calc_Obskaya_bay/Data/Variables.xlsx
+++ b/Obskaya bay/R_calc_Obskaya_bay/Data/Variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Variable</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="204"/>
+      </rPr>
       <t>О</t>
     </r>
     <r>
@@ -385,20 +391,38 @@
   <si>
     <t>фосфор органический, мкг/л  в поверхностном слое воды</t>
   </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>Судовая нагрузка</t>
+  </si>
+  <si>
+    <t>Distance_Dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расстояние до точек отвала грунта </t>
+  </si>
+  <si>
+    <t>Distance_to_Drag</t>
+  </si>
+  <si>
+    <t>Расстояние до точек дноуглубления</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,13 +451,13 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -457,8 +481,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,14 +570,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -488,8 +578,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,29 +588,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,44 +598,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,187 +624,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,20 +818,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,51 +884,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -885,21 +897,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,128 +941,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,6 +1091,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1384,15 +1412,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="58.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1400,7 +1428,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1408,7 +1436,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1416,7 +1444,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1424,7 +1452,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1432,7 +1460,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1440,7 +1468,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1448,7 +1476,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1456,7 +1484,7 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1464,7 +1492,7 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1472,7 +1500,7 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1480,7 +1508,7 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1488,7 +1516,7 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1496,7 +1524,7 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1504,7 +1532,7 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1512,7 +1540,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1520,7 +1548,7 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1528,7 +1556,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1536,7 +1564,7 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1544,7 +1572,7 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1552,7 +1580,7 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1560,7 +1588,7 @@
       <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1568,7 +1596,7 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1576,7 +1604,7 @@
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1584,7 +1612,7 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1592,7 +1620,7 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1600,7 +1628,7 @@
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1608,7 +1636,7 @@
       <c r="A27" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1616,7 +1644,7 @@
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1624,7 +1652,7 @@
       <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1632,7 +1660,7 @@
       <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1640,7 +1668,7 @@
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1648,7 +1676,7 @@
       <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1656,7 +1684,7 @@
       <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1664,7 +1692,7 @@
       <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1672,7 +1700,7 @@
       <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1680,7 +1708,7 @@
       <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1688,7 +1716,7 @@
       <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1696,7 +1724,7 @@
       <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1704,7 +1732,7 @@
       <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1712,7 +1740,7 @@
       <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1720,7 +1748,7 @@
       <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1728,7 +1756,7 @@
       <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1736,7 +1764,7 @@
       <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1744,7 +1772,7 @@
       <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1752,7 +1780,7 @@
       <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1760,7 +1788,7 @@
       <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1768,7 +1796,7 @@
       <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1776,7 +1804,7 @@
       <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1784,7 +1812,7 @@
       <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1792,7 +1820,7 @@
       <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1800,7 +1828,7 @@
       <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1808,7 +1836,7 @@
       <c r="A52" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1816,7 +1844,7 @@
       <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1824,7 +1852,7 @@
       <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1832,8 +1860,32 @@
       <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:2">
+      <c r="A56" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:2">
+      <c r="A57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:2">
+      <c r="A58" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
